--- a/Gurobi/Datos este si que si.xlsx
+++ b/Gurobi/Datos este si que si.xlsx
@@ -12,31 +12,32 @@
     <sheet state="visible" name="DE_5jt" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="DE_6jt" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="CUP_m" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="CI_j" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="CPV" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="CAP_m" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="CMP_m" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="VOL_j" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="PP_j" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="PPC_m" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="CAC_j" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="CTR_1jm" sheetId="18" r:id="rId21"/>
-    <sheet state="visible" name="CTR_2jm" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="CTR_3jm" sheetId="20" r:id="rId23"/>
-    <sheet state="visible" name="CTR_4jm" sheetId="21" r:id="rId24"/>
-    <sheet state="visible" name="CTR_5jm" sheetId="22" r:id="rId25"/>
-    <sheet state="visible" name="CTR_6jm" sheetId="23" r:id="rId26"/>
-    <sheet state="visible" name="CCN_mt" sheetId="24" r:id="rId27"/>
-    <sheet state="visible" name="CD_mt" sheetId="25" r:id="rId28"/>
-    <sheet state="visible" name="CE_e" sheetId="26" r:id="rId29"/>
-    <sheet state="visible" name="CDA_me" sheetId="27" r:id="rId30"/>
-    <sheet state="visible" name="CAM_m1t" sheetId="28" r:id="rId31"/>
-    <sheet state="visible" name="CAM_m2t" sheetId="29" r:id="rId32"/>
-    <sheet state="visible" name="CAM_m3t" sheetId="30" r:id="rId33"/>
-    <sheet state="visible" name="CIN_m" sheetId="31" r:id="rId34"/>
-    <sheet state="visible" name="CED_e" sheetId="32" r:id="rId35"/>
-    <sheet state="visible" name="MES" sheetId="33" r:id="rId36"/>
-    <sheet state="visible" name="a_j" sheetId="34" r:id="rId37"/>
+    <sheet state="visible" name="PRD" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="CI_j" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="CPV" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="CAP_m" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="CMP_m" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="VOL_j" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="PP_j" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="PPC_m" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="CAC_j" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="CTR_1jm" sheetId="19" r:id="rId22"/>
+    <sheet state="visible" name="CTR_2jm" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="CTR_3jm" sheetId="21" r:id="rId24"/>
+    <sheet state="visible" name="CTR_4jm" sheetId="22" r:id="rId25"/>
+    <sheet state="visible" name="CTR_5jm" sheetId="23" r:id="rId26"/>
+    <sheet state="visible" name="CTR_6jm" sheetId="24" r:id="rId27"/>
+    <sheet state="visible" name="CCN_mt" sheetId="25" r:id="rId28"/>
+    <sheet state="visible" name="CD_mt" sheetId="26" r:id="rId29"/>
+    <sheet state="visible" name="CE_e" sheetId="27" r:id="rId30"/>
+    <sheet state="visible" name="CDA_me" sheetId="28" r:id="rId31"/>
+    <sheet state="visible" name="CAM_m1t" sheetId="29" r:id="rId32"/>
+    <sheet state="visible" name="CAM_m2t" sheetId="30" r:id="rId33"/>
+    <sheet state="visible" name="CAM_m3t" sheetId="31" r:id="rId34"/>
+    <sheet state="visible" name="CIN_m" sheetId="32" r:id="rId35"/>
+    <sheet state="visible" name="CED_e" sheetId="33" r:id="rId36"/>
+    <sheet state="visible" name="MES" sheetId="34" r:id="rId37"/>
+    <sheet state="visible" name="a_j" sheetId="35" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -231,6 +232,10 @@
 </file>
 
 <file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -544,6 +549,26 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="4">
+        <v>5000000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="2">
         <v>45.0</v>
       </c>
@@ -556,7 +581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -576,7 +601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -602,7 +627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -628,7 +653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -651,7 +676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -674,7 +699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -700,7 +725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -723,7 +748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -776,7 +801,162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2">
+        <v>172.0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>114.0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>211.0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>233.0</v>
+      </c>
+      <c r="E1" s="2">
+        <v>223.0</v>
+      </c>
+      <c r="F1" s="2">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>179.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>119.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>224.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>241.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>231.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>188.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>128.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>219.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>249.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>229.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>193.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>131.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>234.0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>251.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>252.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>207.0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>139.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>231.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>253.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>266.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>155.0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>108.0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>201.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>231.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>204.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>148.0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>97.0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>182.0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>227.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>211.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -839,162 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2">
-        <v>172.0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>114.0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>211.0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>233.0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>223.0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>179.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>119.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>224.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>241.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>231.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>188.0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>128.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>219.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>249.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>229.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>193.0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>131.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>234.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>251.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>252.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>207.0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>139.0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>231.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>253.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>266.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>155.0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>108.0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>201.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>231.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>204.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>148.0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>97.0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>182.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>227.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>211.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1033,7 +1058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1072,7 +1097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1111,7 +1136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1150,7 +1175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1242,7 +1267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1334,7 +1359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1360,7 +1385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1408,7 +1433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1500,7 +1525,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1592,78 +1688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>36.0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>44.0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1755,7 +1780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1781,7 +1806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1807,7 +1832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1827,7 +1852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/Gurobi/Datos este si que si.xlsx
+++ b/Gurobi/Datos este si que si.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpere\Desktop\IIC2233\Gurobi opti\Repositorio-de-practica\Gurobi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02245D01-16D2-40B7-9DCF-E92D6F313854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C21B7FE-7B50-4A70-BC12-B1989F52FE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="958" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="958" firstSheet="13" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V_jt" sheetId="1" r:id="rId1"/>
@@ -468,16 +468,18 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
-        <v>45</v>
-      </c>
-      <c r="B1" s="4">
-        <v>35</v>
+        <v>650</v>
+      </c>
+      <c r="B1" s="4">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +516,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -543,7 +545,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -619,7 +621,7 @@
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1312,9 +1314,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1715,7 +1715,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
